--- a/FINAL MATERIAL FOR PUBLISHED PAPER/supplementary tables/Supplementary Table 5 - surveyed resources.xlsx
+++ b/FINAL MATERIAL FOR PUBLISHED PAPER/supplementary tables/Supplementary Table 5 - surveyed resources.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\PhD\CHAPTER 1 - AUSTRALIAN PLANT PHOTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thoma\Documents\PhD\CHAPTER 1 - AUSTRALIAN PLANT PHOTOS\proofs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{641B2902-3171-4C75-9370-1B006154BE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6CD7B0E-140E-46B8-AD18-2E5064FDBD62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{4097503D-DD68-4C6F-AC00-305C02F254CF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{4097503D-DD68-4C6F-AC00-305C02F254CF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Resources" sheetId="1" r:id="rId1"/>
-    <sheet name="Sources within the ALA" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
+    <sheet name="Resources" sheetId="1" r:id="rId2"/>
+    <sheet name="Sources within the ALA" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="212">
   <si>
     <t>Survey method</t>
   </si>
@@ -240,9 +241,6 @@
   </si>
   <si>
     <t xml:space="preserve">http://www.flora.sa.gov.au/efsa/lucid/Hakea/key/Australian%20Hakea%20species/Media/Html/index.htm </t>
-  </si>
-  <si>
-    <t>1 and 34</t>
   </si>
   <si>
     <t>2 and 30</t>
@@ -502,9 +500,6 @@
     <t>Albury Wodonga Nature Map</t>
   </si>
   <si>
-    <t>Query via R package 'galah', and then manual checking for photograph vs. illustrations. Note that photographs pulled from the ALA were derived from 30 different individual sources (see sheet 2).</t>
-  </si>
-  <si>
     <t>Resource</t>
   </si>
   <si>
@@ -514,9 +509,6 @@
     <t>Australian Plant Image Index (APII)</t>
   </si>
   <si>
-    <t>Mass data downloads using export tool (1; https://www.inaturalist.org/observations/export), and then additional query via the ALA using the R package 'galah' (34).</t>
-  </si>
-  <si>
     <t>https://www.inaturalist.org</t>
   </si>
   <si>
@@ -526,17 +518,178 @@
     <t>Programmatic search for species with images using R script, and then manual checking for photograph vs. illustrations. Additional manual sweep for photographs attached only to subspecies or inactive species profiles</t>
   </si>
   <si>
-    <t>Programmatic search for species with images using R script, and then manual checking for photograph vs. illustrations. Additional manual sweep for photographs that were missed initially.</t>
-  </si>
-  <si>
-    <t>Manual checking based on a provided CSV of included species. Note that most photographs from this resource were already found during the ALA query, which imports photos from the APII (but not all, thus the need for additional manual checking).</t>
+    <t>1 and 32</t>
+  </si>
+  <si>
+    <t>Photographs geotagged (coordinates) and dated?</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Neither</t>
+  </si>
+  <si>
+    <t>Dated</t>
+  </si>
+  <si>
+    <t>Identifications/input accepted directly on records</t>
+  </si>
+  <si>
+    <t>Programmatic search for species with images using R script, and then manual checking for photograph vs. illustrations. Additional manual sweep for photographs that were missed initially</t>
+  </si>
+  <si>
+    <t>Mass data downloads using export tool (1; https://www.inaturalist.org/observations/export), and then additional query via the ALA using the R package 'galah' to capture additional records added or identified in the ~2 weeks after the initial download (32)</t>
+  </si>
+  <si>
+    <t>How are identifications, corrections and comments made on individual records?</t>
+  </si>
+  <si>
+    <t>Flagging system, flags reviewed by administrators</t>
+  </si>
+  <si>
+    <t>Contact email provided for communication with administrators</t>
+  </si>
+  <si>
+    <t>Flagging system, flags reviewed by administrators; contact email provided for 
+communication with administrators</t>
+  </si>
+  <si>
+    <t>Web form and contact email provided for communication with administrators</t>
+  </si>
+  <si>
+    <t>No obvious feedback mechanism</t>
+  </si>
+  <si>
+    <t>Web form provided for communication with administrators, but site no longer
+actively maintained</t>
+  </si>
+  <si>
+    <t>Data source</t>
+  </si>
+  <si>
+    <t>Link to metadata and details</t>
+  </si>
+  <si>
+    <t>Query via R package 'galah', and then manual checking for photograph vs. illustrations. Note that photographs pulled from the ALA were derived from 30 different individual data sources/providers (see sheet 2)</t>
+  </si>
+  <si>
+    <t>https://collections.ala.org.au/public/show/dr703</t>
+  </si>
+  <si>
+    <t>https://collections.ala.org.au/public/show/dr440</t>
+  </si>
+  <si>
+    <t>https://collections.ala.org.au/public/show/dr4577</t>
+  </si>
+  <si>
+    <t>https://collections.ala.org.au/public/show/dr14021</t>
+  </si>
+  <si>
+    <t>https://collections.ala.org.au/public/show/dr613</t>
+  </si>
+  <si>
+    <t>https://collections.ala.org.au/public/show/dr705</t>
+  </si>
+  <si>
+    <t>https://collections.ala.org.au/public/show/dr450</t>
+  </si>
+  <si>
+    <t>https://collections.ala.org.au/public/show/dr417</t>
+  </si>
+  <si>
+    <t>https://collections.ala.org.au/public/show/dr428</t>
+  </si>
+  <si>
+    <t>https://collections.ala.org.au/public/show/dr2191</t>
+  </si>
+  <si>
+    <t>https://collections.ala.org.au/public/show/dr14081</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr413 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr364 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr1902 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr534 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr15273 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr360 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr1947 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr689 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr1411 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr893 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr635 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr449 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr691 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr700 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr545 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr18292 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr451 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr702 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://collections.ala.org.au/public/show/dr382 </t>
+  </si>
+  <si>
+    <t>Manual checking based on a provided CSV of included species. Note that most photographs from this resource were already found during the ALA query, which imports photos from the APII (but not all, thus the need for additional manual checking directly within the APII site)</t>
+  </si>
+  <si>
+    <t>New Phytologist Supporting Information</t>
+  </si>
+  <si>
+    <t>Photographs as an essential biodiversity resource: drivers of gaps in the vascular plant photographic record</t>
+  </si>
+  <si>
+    <t>Thomas Mesaglio, Hervé Sauquet, David Coleman, Elizabeth Wenk, William K Cornwell</t>
+  </si>
+  <si>
+    <t>Accepted 8 February 2023</t>
+  </si>
+  <si>
+    <t>Caption</t>
+  </si>
+  <si>
+    <t>List of 33 online resources surveyed during our study, with metadata including taxonomic and geographic scope, survey method, copyright information and protocols for corrections or identifications.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -548,6 +701,14 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -574,7 +735,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -586,6 +747,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -900,8 +1062,53 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{865D8D90-A452-4FA6-9114-94613487466D}">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D6FEC9-1B09-415F-9527-01D0733BC10B}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
@@ -916,55 +1123,69 @@
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
     <col min="6" max="6" width="30.140625" customWidth="1"/>
     <col min="7" max="7" width="67.28515625" customWidth="1"/>
+    <col min="8" max="8" width="45" customWidth="1"/>
+    <col min="9" max="9" width="72.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D1" t="s">
         <v>13</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
         <v>81</v>
       </c>
-      <c r="F2" t="s">
-        <v>82</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>164</v>
+      </c>
+      <c r="H2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -975,19 +1196,25 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="H3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -998,19 +1225,25 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
+        <v>83</v>
+      </c>
+      <c r="F4" t="s">
         <v>84</v>
       </c>
-      <c r="F4" t="s">
-        <v>85</v>
-      </c>
       <c r="G4" s="3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="H4" t="s">
+        <v>160</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1021,19 +1254,25 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H5" t="s">
+        <v>160</v>
+      </c>
+      <c r="I5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1044,19 +1283,25 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H6" t="s">
+        <v>160</v>
+      </c>
+      <c r="I6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
@@ -1067,19 +1312,25 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H7" t="s">
+        <v>160</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -1090,19 +1341,25 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1113,19 +1370,25 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H9" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1136,19 +1399,25 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H10" t="s">
+        <v>160</v>
+      </c>
+      <c r="I10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1159,19 +1428,25 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="H11" t="s">
+        <v>160</v>
+      </c>
+      <c r="I11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1182,19 +1457,25 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H12" t="s">
+        <v>160</v>
+      </c>
+      <c r="I12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>14</v>
       </c>
@@ -1205,19 +1486,25 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>163</v>
+      </c>
+      <c r="H13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>15</v>
       </c>
@@ -1228,19 +1515,25 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H14" t="s">
+        <v>160</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1251,19 +1544,25 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H15" t="s">
+        <v>160</v>
+      </c>
+      <c r="I15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1274,19 +1573,25 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H16" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>18</v>
       </c>
@@ -1297,19 +1602,25 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E17" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>108</v>
-      </c>
       <c r="G17" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>19</v>
       </c>
@@ -1320,19 +1631,25 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H18" t="s">
+        <v>160</v>
+      </c>
+      <c r="I18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1343,19 +1660,25 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H19" t="s">
+        <v>160</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>21</v>
       </c>
@@ -1366,19 +1689,25 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H20" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>22</v>
       </c>
@@ -1389,19 +1718,25 @@
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H21" t="s">
+        <v>160</v>
+      </c>
+      <c r="I21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -1412,19 +1747,25 @@
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H22" t="s">
+        <v>160</v>
+      </c>
+      <c r="I22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>24</v>
       </c>
@@ -1435,19 +1776,25 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H23" t="s">
+        <v>160</v>
+      </c>
+      <c r="I23" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>25</v>
       </c>
@@ -1458,19 +1805,25 @@
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H24" t="s">
+        <v>160</v>
+      </c>
+      <c r="I24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>26</v>
       </c>
@@ -1481,19 +1834,25 @@
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H25" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>27</v>
       </c>
@@ -1504,19 +1863,25 @@
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F26" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H26" t="s">
+        <v>160</v>
+      </c>
+      <c r="I26" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>28</v>
       </c>
@@ -1527,19 +1892,25 @@
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H27" t="s">
+        <v>160</v>
+      </c>
+      <c r="I27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>29</v>
       </c>
@@ -1550,19 +1921,25 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H28" t="s">
+        <v>160</v>
+      </c>
+      <c r="I28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>30</v>
       </c>
@@ -1573,19 +1950,25 @@
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H29" t="s">
+        <v>160</v>
+      </c>
+      <c r="I29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>31</v>
       </c>
@@ -1596,42 +1979,54 @@
         <v>29</v>
       </c>
       <c r="D30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H30" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E31" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G31" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="H31" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>33</v>
       </c>
@@ -1642,19 +2037,25 @@
         <v>31</v>
       </c>
       <c r="D32" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H32" t="s">
+        <v>161</v>
+      </c>
+      <c r="I32" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>34</v>
       </c>
@@ -1662,22 +2063,28 @@
         <v>66</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="H33" t="s">
+        <v>160</v>
+      </c>
+      <c r="I33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>35</v>
       </c>
@@ -1685,19 +2092,25 @@
         <v>67</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
+      </c>
+      <c r="H34" t="s">
+        <v>160</v>
+      </c>
+      <c r="I34" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1741,173 +2154,305 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E438F8BE-2643-4C8F-ADBE-C440EFD7752E}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="58.85546875" customWidth="1"/>
+    <col min="2" max="2" width="110.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="B2" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B6" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B7" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="B8" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="B9" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="B10" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B11" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="B12" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="B13" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="B14" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="B15" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="B16" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="B17" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="B18" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="B19" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="B20" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="B21" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+      <c r="B22" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+      <c r="B23" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="B24" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="B25" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="B26" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
+      <c r="B27" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="B28" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+      <c r="B29" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+      <c r="B30" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="B31" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{5E658725-7106-407D-9DBD-E61D2DBD4C90}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{C0BC3F09-609F-4AC8-A035-4FFC1C96730E}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{C1047D15-5869-4F48-AF4C-F1FBAC7909EE}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{C1AD0C02-FB2F-4732-87D4-A95C26BAC5B5}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{39DA3F89-CF44-4BC1-BF31-EB0E01DA55BE}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{F6D8D9A0-51D5-42D3-B0A3-902C54EDCC39}"/>
+    <hyperlink ref="B8" r:id="rId7" xr:uid="{C083376E-6EDC-41D2-A655-71381F94FD8E}"/>
+    <hyperlink ref="B9" r:id="rId8" xr:uid="{5ADC5B9D-F600-4DF6-8E3F-16FA5FFEDB78}"/>
+    <hyperlink ref="B10" r:id="rId9" xr:uid="{72AC30B0-B70C-4A85-B01C-414BA2ADA91A}"/>
+    <hyperlink ref="B11" r:id="rId10" xr:uid="{9A5FC321-A4DC-4ED6-8682-5DE4AFA6E0E8}"/>
+    <hyperlink ref="B12" r:id="rId11" xr:uid="{E6F1B539-27A4-4E9E-8A96-83C1245EE194}"/>
+    <hyperlink ref="B13" r:id="rId12" xr:uid="{6CC2F870-5EE1-49D5-8F26-4F21C7C2C5D0}"/>
+    <hyperlink ref="B14" r:id="rId13" xr:uid="{BC5861F8-3EC2-421F-ACCC-1E1CDB0562AF}"/>
+    <hyperlink ref="B31" r:id="rId14" xr:uid="{4608ED52-C6E2-4666-9EFC-C06074D02995}"/>
+    <hyperlink ref="B15" r:id="rId15" xr:uid="{DD082940-1643-4345-AC03-E53F15A8D5C6}"/>
+    <hyperlink ref="B16" r:id="rId16" xr:uid="{D3E7AC30-5FB3-453C-8E63-A7F2AF1BFC29}"/>
+    <hyperlink ref="B17" r:id="rId17" xr:uid="{D94DB4FD-4236-4567-B52D-862ED2FF7A9E}"/>
+    <hyperlink ref="B18" r:id="rId18" xr:uid="{07488FBF-A526-43CC-ACA1-27B2000F988B}"/>
+    <hyperlink ref="B19" r:id="rId19" xr:uid="{922A317E-93B5-41C4-AE6A-DB14FEA7C3AA}"/>
+    <hyperlink ref="B20" r:id="rId20" xr:uid="{B3FA0074-17B5-454D-8230-CD6D8AE85950}"/>
+    <hyperlink ref="B21" r:id="rId21" xr:uid="{D680FE33-DD4D-4504-8425-3B671360154E}"/>
+    <hyperlink ref="B22" r:id="rId22" xr:uid="{AC29298E-A48B-432B-9A0A-E38588EA46BA}"/>
+    <hyperlink ref="B23" r:id="rId23" xr:uid="{FC765788-3666-4AE7-B543-4B8049187C79}"/>
+    <hyperlink ref="B24" r:id="rId24" xr:uid="{F57EED59-AD47-483B-9B0E-ED23EDCA26AC}"/>
+    <hyperlink ref="B25" r:id="rId25" xr:uid="{E660E5CD-365E-4811-BDD5-C31B1CFDF88F}"/>
+    <hyperlink ref="B26" r:id="rId26" xr:uid="{371A16B1-526F-47F6-A826-DE1CB37A22DA}"/>
+    <hyperlink ref="B27" r:id="rId27" xr:uid="{27D9C2FD-348C-4CF6-9C08-E0280DF8E266}"/>
+    <hyperlink ref="B28" r:id="rId28" xr:uid="{3C0BF32F-7B4C-429B-9FF2-ABF93EB70006}"/>
+    <hyperlink ref="B29" r:id="rId29" xr:uid="{10D1B4A4-5E2C-4643-9E93-348ECA4D0099}"/>
+    <hyperlink ref="B30" r:id="rId30" xr:uid="{2D26C474-8C87-4ACE-BB74-262427168CB8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>